--- a/Proof of concept analysis.xlsx
+++ b/Proof of concept analysis.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed accuracy" sheetId="1" r:id="rId1"/>
     <sheet name="Overall accuracy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Big dataset" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>str: U.S. stocks close higher; S&amp;P 500 gains 0.9%</t>
   </si>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,12 +898,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0.54</v>
+      </c>
+      <c r="C2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>